--- a/doc/ue_movement_adjust.xlsx
+++ b/doc/ue_movement_adjust.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647592AC-37EA-421C-9C1D-AAD3B6FABAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAC0A93-5FEB-45B1-831B-7D1987679394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="备注" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>主要描述UE4，对于操作者自己的移动修正处理（拖拽</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/114341957</t>
   </si>
 </sst>
 </file>
@@ -101,6 +108,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7922DA-A7C7-2FE0-B7A1-24688413C130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="1085850"/>
+          <a:ext cx="190500" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,23 +439,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -416,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EE8016-0215-472D-B734-41DBEF3AF4DF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/doc/ue_movement_adjust.xlsx
+++ b/doc/ue_movement_adjust.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAC0A93-5FEB-45B1-831B-7D1987679394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AA833D-4D84-4E3F-A97D-B2EDCCF450B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="备注" sheetId="1" r:id="rId1"/>
     <sheet name="DS处理" sheetId="2" r:id="rId2"/>
-    <sheet name="客户端处理" sheetId="3" r:id="rId3"/>
+    <sheet name="客户端同步移动" sheetId="3" r:id="rId3"/>
     <sheet name="参数" sheetId="4" r:id="rId4"/>
+    <sheet name="关于移动同步" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>主要描述UE4，对于操作者自己的移动修正处理（拖拽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,13 +41,83 @@
   </si>
   <si>
     <t>https://zhuanlan.zhihu.com/p/114341957</t>
+  </si>
+  <si>
+    <t>客户端采用的是冗余发送策略，但是这个冗余仅仅是指一个OldMove和PendingMove和当前帧的MOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于ServerMoveOld(float OldTimeStamp, FVector_NetQuantize10 OldAccel, uint8 OldMoveFlags)，其实占用的字节数很小，并且客户端也没有大的消息包，所以可以做更多的冗余发送，来减少UDP丢包，优化网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是客户端的冗余发送，没有判断数据之间的距离，所以会造成DS的拉人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCharacterMovementComponent::ReplicateMoveToServer(float DeltaTime, const FVector&amp; NewAcceleration)</t>
+  </si>
+  <si>
+    <t>先取一个之前最老的，进行冗余发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Find the oldest (unacknowledged) important move (OldMove).</t>
+  </si>
+  <si>
+    <t>// Don't include the last move because it may be combined with the next new move.</t>
+  </si>
+  <si>
+    <t>// A saved move is interesting if it differs significantly from the last acknowledged move</t>
+  </si>
+  <si>
+    <t>FSavedMovePtr OldMove = NULL;</t>
+  </si>
+  <si>
+    <t>if( ClientData-&gt;LastAckedMove.IsValid() )</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>const int32 NumSavedMoves = ClientData-&gt;SavedMoves.Num();</t>
+  </si>
+  <si>
+    <t>for (int32 i=0; i &lt; NumSavedMoves-1; i++)</t>
+  </si>
+  <si>
+    <t>const FSavedMovePtr&amp; CurrentMove = ClientData-&gt;SavedMoves[i];</t>
+  </si>
+  <si>
+    <t>if (CurrentMove-&gt;IsImportantMove(ClientData-&gt;LastAckedMove))</t>
+  </si>
+  <si>
+    <t>OldMove = CurrentMove;</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>！！！这里就有问题，最老的可能和最新的差距比较大了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一帧Pending的Move数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前的异步数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +141,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,9 +169,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -485,12 +565,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14CD601-B399-4866-96FA-C13E87197095}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -507,4 +711,50 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1095C7-DDCC-43DA-9C5F-F6C07166FEE9}">
+  <dimension ref="B3:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEFC772-627E-4427-ABE1-6881A84EB0E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>